--- a/words.xlsx
+++ b/words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E333AE4-0FDE-4B2C-8E9F-9E9DF843C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF94FF8-CCC7-4F59-9909-BC0B558A6211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>слово</t>
   </si>
@@ -177,6 +177,114 @@
   </si>
   <si>
     <t>бисэт</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>коуп</t>
+  </si>
+  <si>
+    <t>справляться</t>
+  </si>
+  <si>
+    <t>miser</t>
+  </si>
+  <si>
+    <t>жмот</t>
+  </si>
+  <si>
+    <t>майзер</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>рекогнайз</t>
+  </si>
+  <si>
+    <t>распознать, признать, узнать</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>сорняк</t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>фит</t>
+  </si>
+  <si>
+    <t>уиид</t>
+  </si>
+  <si>
+    <t>подвиг, мастерство</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>бездействующий, простаивающий, бездействовать, простаивать</t>
+  </si>
+  <si>
+    <t>айдл</t>
+  </si>
+  <si>
+    <t>mosquito</t>
+  </si>
+  <si>
+    <t>москито</t>
+  </si>
+  <si>
+    <t>комар</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>стрип</t>
+  </si>
+  <si>
+    <t>полоса, лента</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>взбираться, карабкаться</t>
+  </si>
+  <si>
+    <t>клайм</t>
+  </si>
+  <si>
+    <t>outline</t>
+  </si>
+  <si>
+    <t>кратко излагать, краткое изложение, контур, очертание</t>
+  </si>
+  <si>
+    <t>аутлайн</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>пилот</t>
+  </si>
+  <si>
+    <t>пайлот</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>харвест</t>
+  </si>
+  <si>
+    <t>сбор урожая, урожай</t>
   </si>
 </sst>
 </file>
@@ -539,20 +647,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -574,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -585,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -596,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -607,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -618,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -629,7 +737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -640,7 +748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -651,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -662,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -673,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -684,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -695,7 +803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -706,7 +814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -717,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -726,6 +834,138 @@
       </c>
       <c r="C16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF94FF8-CCC7-4F59-9909-BC0B558A6211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A10F7-27A0-41E7-8A7D-D3FA1CB603FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>слово</t>
   </si>
@@ -285,6 +285,213 @@
   </si>
   <si>
     <t>сбор урожая, урожай</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>джин</t>
+  </si>
+  <si>
+    <t>ген</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>алкоголь</t>
+  </si>
+  <si>
+    <t>элкохол</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>эктор</t>
+  </si>
+  <si>
+    <t>актёр</t>
+  </si>
+  <si>
+    <t>thrift</t>
+  </si>
+  <si>
+    <t>thrifty</t>
+  </si>
+  <si>
+    <t>бережливость, экономность</t>
+  </si>
+  <si>
+    <t>фрифт</t>
+  </si>
+  <si>
+    <t>фрифти</t>
+  </si>
+  <si>
+    <t>бережливый, расчётливый, экономный</t>
+  </si>
+  <si>
+    <t>enchant</t>
+  </si>
+  <si>
+    <t>инчант</t>
+  </si>
+  <si>
+    <t>очаровывать, завораживать</t>
+  </si>
+  <si>
+    <t>акИн</t>
+  </si>
+  <si>
+    <t>akin</t>
+  </si>
+  <si>
+    <t>родственный, схожий</t>
+  </si>
+  <si>
+    <t>райвэл</t>
+  </si>
+  <si>
+    <t>соперник, конкурент, соперничающий, конкурирующий</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>yell</t>
+  </si>
+  <si>
+    <t>ел</t>
+  </si>
+  <si>
+    <t>кричать, вопить, крик</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>эш</t>
+  </si>
+  <si>
+    <t>пепел</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>организация, учереждение</t>
+  </si>
+  <si>
+    <t>институшин</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>не включать, пропускать, упускать</t>
+  </si>
+  <si>
+    <t>оумит</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>зарабатывать, заслуживать</t>
+  </si>
+  <si>
+    <t>орн</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>экстэнт</t>
+  </si>
+  <si>
+    <t>степень, мера</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>орс</t>
+  </si>
+  <si>
+    <t>Земля, земля, почва</t>
+  </si>
+  <si>
+    <t>эйд</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>помощь</t>
+  </si>
+  <si>
+    <t>scorn</t>
+  </si>
+  <si>
+    <t>скорн</t>
+  </si>
+  <si>
+    <t>презрение, пренебрежение, презирать, пренебрегать</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>хаг</t>
+  </si>
+  <si>
+    <t>обнимать, объятие</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>шеф</t>
+  </si>
+  <si>
+    <t>шеф-повар</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>злой, зло</t>
+  </si>
+  <si>
+    <t>ивэл</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>судебное разбирательство</t>
+  </si>
+  <si>
+    <t>траил</t>
+  </si>
+  <si>
+    <t>ally</t>
+  </si>
+  <si>
+    <t>союзник</t>
+  </si>
+  <si>
+    <t>элай</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>ленд</t>
+  </si>
+  <si>
+    <t>давать взаймы</t>
   </si>
 </sst>
 </file>
@@ -647,17 +854,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,6 +1175,259 @@
         <v>83</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A10F7-27A0-41E7-8A7D-D3FA1CB603FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264723CF-A9B2-450C-BF9C-84FFDAA98654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>слово</t>
   </si>
@@ -492,6 +492,24 @@
   </si>
   <si>
     <t>давать взаймы</t>
+  </si>
+  <si>
+    <t>pull sth down</t>
+  </si>
+  <si>
+    <t>cносить (здание)</t>
+  </si>
+  <si>
+    <t>пул даун</t>
+  </si>
+  <si>
+    <t>fall over</t>
+  </si>
+  <si>
+    <t>опрокидываться, падать</t>
+  </si>
+  <si>
+    <t>фол овер</t>
   </si>
 </sst>
 </file>
@@ -854,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,6 +1446,28 @@
         <v>152</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264723CF-A9B2-450C-BF9C-84FFDAA98654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0B940-E425-494E-A726-014F8304019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>слово</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>фол овер</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>имущество, недвижимость, имение</t>
+  </si>
+  <si>
+    <t>эстэйт</t>
   </si>
 </sst>
 </file>
@@ -872,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
@@ -1468,6 +1477,17 @@
         <v>157</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Danila\eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0B940-E425-494E-A726-014F8304019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870274B6-88AA-4FC2-84BF-2D2969B1C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>слово</t>
   </si>
@@ -519,6 +519,195 @@
   </si>
   <si>
     <t>эстэйт</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>стрикт</t>
+  </si>
+  <si>
+    <t>строгий, требовательный, точный</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>корзина</t>
+  </si>
+  <si>
+    <t>баскет</t>
+  </si>
+  <si>
+    <t>peril</t>
+  </si>
+  <si>
+    <t>опасность, риск</t>
+  </si>
+  <si>
+    <t>перл</t>
+  </si>
+  <si>
+    <t>whenever</t>
+  </si>
+  <si>
+    <t>когда бы ни</t>
+  </si>
+  <si>
+    <t>веневэр</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t>кртутой (склон), резкий, обрывистый</t>
+  </si>
+  <si>
+    <t>стип</t>
+  </si>
+  <si>
+    <t>экзолт</t>
+  </si>
+  <si>
+    <t>exalt</t>
+  </si>
+  <si>
+    <t>превозносить, возвышать</t>
+  </si>
+  <si>
+    <t>bolw</t>
+  </si>
+  <si>
+    <t>миска, чаша</t>
+  </si>
+  <si>
+    <t>бол</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>хит</t>
+  </si>
+  <si>
+    <t>жара, тепло, зной</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>стебель, останавливать</t>
+  </si>
+  <si>
+    <t>стем</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>эра</t>
+  </si>
+  <si>
+    <t>эра, эпоха</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">записка, заметка </t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>уведомление, замечание, замечать, отмечать, уведомлять</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>ноутис</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>ивен</t>
+  </si>
+  <si>
+    <t>ровный, гладкий, равномерный, чётный</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>пэт</t>
+  </si>
+  <si>
+    <t>питомец, гладить</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>отдых, отдыхать</t>
+  </si>
+  <si>
+    <t>рест</t>
+  </si>
+  <si>
+    <t>barter</t>
+  </si>
+  <si>
+    <t>товаобмен, обмен, натуральный обмен</t>
+  </si>
+  <si>
+    <t>батэр</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>наказание, штраф</t>
+  </si>
+  <si>
+    <t>пеналти</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>пекарь</t>
+  </si>
+  <si>
+    <t>бэйкер</t>
+  </si>
+  <si>
+    <t>примеры</t>
+  </si>
+  <si>
+    <t>inclined</t>
+  </si>
+  <si>
+    <t>быть склонным считать/что-то делать</t>
+  </si>
+  <si>
+    <t>инклайнд</t>
+  </si>
+  <si>
+    <t>I'm inclined to agree with you. Tom is inclined to be forgetful.</t>
+  </si>
+  <si>
+    <t>нетерпеливый, сильно стремящийся</t>
+  </si>
+  <si>
+    <t>eager</t>
+  </si>
+  <si>
+    <t>игер</t>
+  </si>
+  <si>
+    <t>Sam was eager to go home and play on his computer.</t>
   </si>
 </sst>
 </file>
@@ -881,20 +1070,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="57.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,8 +1094,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -916,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -927,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -938,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -949,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -960,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -982,7 +1175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1004,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1048,7 +1241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1059,7 +1252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1092,7 +1285,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1103,7 +1296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1114,7 +1307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1125,7 +1318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1136,7 +1329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1158,7 +1351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1169,7 +1362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1180,7 +1373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1191,7 +1384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1202,7 +1395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1213,7 +1406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1224,7 +1417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1235,7 +1428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1246,7 +1439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1257,7 +1450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1268,7 +1461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1279,7 +1472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -1290,7 +1483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -1301,7 +1494,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1312,7 +1505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -1323,7 +1516,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -1334,7 +1527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -1345,7 +1538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -1356,7 +1549,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -1367,7 +1560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -1378,7 +1571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -1389,7 +1582,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -1400,7 +1593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -1411,7 +1604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -1422,7 +1615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -1433,7 +1626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -1444,7 +1637,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -1455,7 +1648,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -1466,7 +1659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -1477,7 +1670,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -1486,6 +1679,232 @@
       </c>
       <c r="C54" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870274B6-88AA-4FC2-84BF-2D2969B1C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCDBCA4-A91E-47CE-AC8F-C3E0F22F5872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>слово</t>
   </si>
@@ -708,6 +708,141 @@
   </si>
   <si>
     <t>Sam was eager to go home and play on his computer.</t>
+  </si>
+  <si>
+    <t>slam</t>
+  </si>
+  <si>
+    <t>слэм</t>
+  </si>
+  <si>
+    <t>захлопывать, громкое хлопанье, удар</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>энэмэйшон</t>
+  </si>
+  <si>
+    <t>воодушевление, мультфильм, мультипликация</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>арк</t>
+  </si>
+  <si>
+    <t>дуга</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>нест</t>
+  </si>
+  <si>
+    <t>гнездо, гнездиться, вить гнездо</t>
+  </si>
+  <si>
+    <t>tact</t>
+  </si>
+  <si>
+    <t>такт</t>
+  </si>
+  <si>
+    <t>такт, тактичность</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>киуи</t>
+  </si>
+  <si>
+    <t>киви</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>релатив</t>
+  </si>
+  <si>
+    <t>родственник, относительный, сравнительный, относительно</t>
+  </si>
+  <si>
+    <t>daytime</t>
+  </si>
+  <si>
+    <t>дэйтайм</t>
+  </si>
+  <si>
+    <t>дневное время</t>
+  </si>
+  <si>
+    <t>acid</t>
+  </si>
+  <si>
+    <t>Эсид</t>
+  </si>
+  <si>
+    <t>кислота, кислый</t>
+  </si>
+  <si>
+    <t>nod</t>
+  </si>
+  <si>
+    <t>кивать головой, кивок</t>
+  </si>
+  <si>
+    <t>нод</t>
+  </si>
+  <si>
+    <t>апрувал</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>одобрение, утверждение</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>соя, соевый</t>
+  </si>
+  <si>
+    <t>сой</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>сас</t>
+  </si>
+  <si>
+    <t>соус</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t>сииз</t>
+  </si>
+  <si>
+    <t>хватать, ухватиться, воспользоваться, захватывать, конфисковывать</t>
+  </si>
+  <si>
+    <t>donut</t>
+  </si>
+  <si>
+    <t>дОнат</t>
+  </si>
+  <si>
+    <t>пончик</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1907,6 +2042,171 @@
         <v>224</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>243</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCDBCA4-A91E-47CE-AC8F-C3E0F22F5872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E9A7C-F21B-4317-8E65-9D92A878C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>слово</t>
   </si>
@@ -843,6 +843,132 @@
   </si>
   <si>
     <t>пончик</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>консидер</t>
+  </si>
+  <si>
+    <t>рассматривать, обдумывать, принимать во внимание, полагать, считать</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>эар</t>
+  </si>
+  <si>
+    <t>ошибаться</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>проход</t>
+  </si>
+  <si>
+    <t>айл</t>
+  </si>
+  <si>
+    <t>avail</t>
+  </si>
+  <si>
+    <t>польза, выгода, толк</t>
+  </si>
+  <si>
+    <t>эвейл</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>арьгюмент</t>
+  </si>
+  <si>
+    <t>спор, аргумент</t>
+  </si>
+  <si>
+    <t>infamous</t>
+  </si>
+  <si>
+    <t>Инфамас</t>
+  </si>
+  <si>
+    <t>пользующийся дурной славой</t>
+  </si>
+  <si>
+    <t>fool</t>
+  </si>
+  <si>
+    <t>дурак</t>
+  </si>
+  <si>
+    <t>фул</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>рисентли</t>
+  </si>
+  <si>
+    <t>недавно</t>
+  </si>
+  <si>
+    <t>привязывать, связывать, завязывать</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>тай</t>
+  </si>
+  <si>
+    <t>reverence</t>
+  </si>
+  <si>
+    <t>почитание</t>
+  </si>
+  <si>
+    <t>рЕверенс</t>
+  </si>
+  <si>
+    <t>simulate</t>
+  </si>
+  <si>
+    <t>моделировать, воспроизводить</t>
+  </si>
+  <si>
+    <t>симъюлэйт</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>резорт</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+  </si>
+  <si>
+    <t>удовлетворять, угождать; соответствовать требованиям условиям</t>
+  </si>
+  <si>
+    <t>сатисфай</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>фасл</t>
+  </si>
+  <si>
+    <t>ископаемое, окаменелость</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2207,6 +2333,160 @@
         <v>269</v>
       </c>
     </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" t="s">
+        <v>308</v>
+      </c>
+      <c r="C102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E9A7C-F21B-4317-8E65-9D92A878C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29050D0-596E-418C-AFE8-EE493483679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>слово</t>
   </si>
@@ -969,6 +969,186 @@
   </si>
   <si>
     <t>ископаемое, окаменелость</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>фло</t>
+  </si>
+  <si>
+    <t>недостаток, изъян, деффект</t>
+  </si>
+  <si>
+    <t>экуиптед</t>
+  </si>
+  <si>
+    <t>equipped</t>
+  </si>
+  <si>
+    <t>оборудованный, оснащённый</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>оборудование, оснащение</t>
+  </si>
+  <si>
+    <t>экуипмент</t>
+  </si>
+  <si>
+    <t>grille</t>
+  </si>
+  <si>
+    <t>грил</t>
+  </si>
+  <si>
+    <t>решетка</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>огромный</t>
+  </si>
+  <si>
+    <t>энормас</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>странный, непонятный, чудной</t>
+  </si>
+  <si>
+    <t>уиард</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>колено</t>
+  </si>
+  <si>
+    <t>нии</t>
+  </si>
+  <si>
+    <t>obviously</t>
+  </si>
+  <si>
+    <t>очевидно</t>
+  </si>
+  <si>
+    <t>обвиосли</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>движение, общественная деятельность</t>
+  </si>
+  <si>
+    <t>мувмент</t>
+  </si>
+  <si>
+    <t>massive</t>
+  </si>
+  <si>
+    <t>огромный, грандиозный</t>
+  </si>
+  <si>
+    <t>мАсссив</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>ищу</t>
+  </si>
+  <si>
+    <t>вопрос, проблема</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>нелепый</t>
+  </si>
+  <si>
+    <t>редикьюлэс</t>
+  </si>
+  <si>
+    <t>надёжный</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>релаэбл</t>
+  </si>
+  <si>
+    <t>adjustable</t>
+  </si>
+  <si>
+    <t>регулируемый</t>
+  </si>
+  <si>
+    <t>эджастэбл</t>
+  </si>
+  <si>
+    <t>relegate</t>
+  </si>
+  <si>
+    <t>переводить в более низкий разряд</t>
+  </si>
+  <si>
+    <t>религэйт</t>
+  </si>
+  <si>
+    <t>whack</t>
+  </si>
+  <si>
+    <t>ударять</t>
+  </si>
+  <si>
+    <t>уак</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>в конце концов</t>
+  </si>
+  <si>
+    <t>евентуали</t>
+  </si>
+  <si>
+    <t>refine</t>
+  </si>
+  <si>
+    <t>рефайн</t>
+  </si>
+  <si>
+    <t>совершенствовать</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>приличный, порядочный</t>
+  </si>
+  <si>
+    <t>дисент</t>
+  </si>
+  <si>
+    <t>capable</t>
+  </si>
+  <si>
+    <t>кэйпэбел</t>
+  </si>
+  <si>
+    <t>способный</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2487,6 +2667,226 @@
         <v>311</v>
       </c>
     </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>316</v>
+      </c>
+      <c r="B105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>318</v>
+      </c>
+      <c r="B106" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" t="s">
+        <v>329</v>
+      </c>
+      <c r="C109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>330</v>
+      </c>
+      <c r="B110" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" t="s">
+        <v>335</v>
+      </c>
+      <c r="C111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>336</v>
+      </c>
+      <c r="B112" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" t="s">
+        <v>341</v>
+      </c>
+      <c r="C113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>345</v>
+      </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>357</v>
+      </c>
+      <c r="B119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29050D0-596E-418C-AFE8-EE493483679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D0632-4A94-4981-A0A8-9F83AC08C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
   <si>
     <t>слово</t>
   </si>
@@ -980,9 +980,6 @@
     <t>недостаток, изъян, деффект</t>
   </si>
   <si>
-    <t>экуиптед</t>
-  </si>
-  <si>
     <t>equipped</t>
   </si>
   <si>
@@ -1094,9 +1091,6 @@
     <t>регулируемый</t>
   </si>
   <si>
-    <t>эджастэбл</t>
-  </si>
-  <si>
     <t>relegate</t>
   </si>
   <si>
@@ -1139,16 +1133,268 @@
     <t>приличный, порядочный</t>
   </si>
   <si>
-    <t>дисент</t>
-  </si>
-  <si>
     <t>capable</t>
   </si>
   <si>
-    <t>кэйпэбел</t>
-  </si>
-  <si>
     <t>способный</t>
+  </si>
+  <si>
+    <t>эджАстэбл</t>
+  </si>
+  <si>
+    <t>дИсент</t>
+  </si>
+  <si>
+    <t>экуипт</t>
+  </si>
+  <si>
+    <t>кЭйпэбел</t>
+  </si>
+  <si>
+    <t>capable of sth/doing sth</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>обмен, обменивать</t>
+  </si>
+  <si>
+    <t>эксчЕндж</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>апрИшиэйт</t>
+  </si>
+  <si>
+    <t>ценить, быть признательным</t>
+  </si>
+  <si>
+    <t>accountable</t>
+  </si>
+  <si>
+    <t>ответственный</t>
+  </si>
+  <si>
+    <t>акАунтэбл</t>
+  </si>
+  <si>
+    <t>hold accountable</t>
+  </si>
+  <si>
+    <t>привлечь к ответственности</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>обязанность, долг</t>
+  </si>
+  <si>
+    <t>облигЭйшен</t>
+  </si>
+  <si>
+    <t>speculate</t>
+  </si>
+  <si>
+    <t>спЕкьюлэйт</t>
+  </si>
+  <si>
+    <t>строить догадки, делать предположения</t>
+  </si>
+  <si>
+    <t>emphasize</t>
+  </si>
+  <si>
+    <t>придавать значение, подчёркивать</t>
+  </si>
+  <si>
+    <t>Эмфасайз</t>
+  </si>
+  <si>
+    <t>speculation</t>
+  </si>
+  <si>
+    <t>спекюлЭйшн</t>
+  </si>
+  <si>
+    <t>предположение, догадка</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>cерьёзно, тяжело, строго</t>
+  </si>
+  <si>
+    <t>савИрли</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>лечить, угощение</t>
+  </si>
+  <si>
+    <t>трит</t>
+  </si>
+  <si>
+    <t>in a correct fashion</t>
+  </si>
+  <si>
+    <t>правильным образом</t>
+  </si>
+  <si>
+    <t>ministry</t>
+  </si>
+  <si>
+    <t>министерство</t>
+  </si>
+  <si>
+    <t>мИнистри</t>
+  </si>
+  <si>
+    <t>expectataion</t>
+  </si>
+  <si>
+    <t>ожидание, надежда</t>
+  </si>
+  <si>
+    <t>експектЭйшн</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>дьюти</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t>обязательный, необходимый, насущный</t>
+  </si>
+  <si>
+    <t>импЭретив</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>даут</t>
+  </si>
+  <si>
+    <t>сомнение</t>
+  </si>
+  <si>
+    <t>insist</t>
+  </si>
+  <si>
+    <t>настаивать, требовать</t>
+  </si>
+  <si>
+    <t>инсИст</t>
+  </si>
+  <si>
+    <t>regiment</t>
+  </si>
+  <si>
+    <t>полк, полковой</t>
+  </si>
+  <si>
+    <t>рЕджимент</t>
+  </si>
+  <si>
+    <t>by insisting</t>
+  </si>
+  <si>
+    <t>настаивая на</t>
+  </si>
+  <si>
+    <t>to think of</t>
+  </si>
+  <si>
+    <t>to look forward to</t>
+  </si>
+  <si>
+    <t>думать о чем-то</t>
+  </si>
+  <si>
+    <t>с нетерпением ждать чего-то</t>
+  </si>
+  <si>
+    <t>to compain of</t>
+  </si>
+  <si>
+    <t>жаловаться на</t>
+  </si>
+  <si>
+    <t>to carry on</t>
+  </si>
+  <si>
+    <t>продолжать</t>
+  </si>
+  <si>
+    <t>to accuse of</t>
+  </si>
+  <si>
+    <t>обвинять в</t>
+  </si>
+  <si>
+    <t>to succeed in</t>
+  </si>
+  <si>
+    <t>преуспевать в</t>
+  </si>
+  <si>
+    <t>саксид</t>
+  </si>
+  <si>
+    <t>to thank for</t>
+  </si>
+  <si>
+    <t>благодарить за</t>
+  </si>
+  <si>
+    <t>give up</t>
+  </si>
+  <si>
+    <t>сдаваться</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>отрицать</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>воображать, представлять</t>
+  </si>
+  <si>
+    <t>to be front of</t>
+  </si>
+  <si>
+    <t>быть впереди чего-то</t>
+  </si>
+  <si>
+    <t>to be ashamed of</t>
+  </si>
+  <si>
+    <t>стыдиться чего-то</t>
+  </si>
+  <si>
+    <t>эшеймнт</t>
+  </si>
+  <si>
+    <t>to be tired of</t>
+  </si>
+  <si>
+    <t>что-то надоело</t>
   </si>
 </sst>
 </file>
@@ -1511,15 +1757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="57.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.54296875" customWidth="1"/>
@@ -2680,211 +2926,524 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" t="s">
         <v>316</v>
-      </c>
-      <c r="B105" t="s">
-        <v>315</v>
-      </c>
-      <c r="C105" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" t="s">
         <v>318</v>
-      </c>
-      <c r="B106" t="s">
-        <v>320</v>
-      </c>
-      <c r="C106" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>320</v>
+      </c>
+      <c r="B107" t="s">
         <v>321</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>322</v>
-      </c>
-      <c r="C107" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" t="s">
         <v>324</v>
-      </c>
-      <c r="B108" t="s">
-        <v>326</v>
-      </c>
-      <c r="C108" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s">
         <v>327</v>
-      </c>
-      <c r="B109" t="s">
-        <v>329</v>
-      </c>
-      <c r="C109" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
         <v>330</v>
-      </c>
-      <c r="B110" t="s">
-        <v>332</v>
-      </c>
-      <c r="C110" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" t="s">
         <v>333</v>
-      </c>
-      <c r="B111" t="s">
-        <v>335</v>
-      </c>
-      <c r="C111" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" t="s">
         <v>336</v>
       </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>338</v>
       </c>
-      <c r="C112" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" t="s">
         <v>339</v>
       </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>341</v>
       </c>
-      <c r="C113" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>342</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
         <v>345</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
         <v>347</v>
       </c>
-      <c r="C115" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>349</v>
-      </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>350</v>
       </c>
-      <c r="C116" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" t="s">
         <v>351</v>
       </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" t="s">
         <v>353</v>
       </c>
-      <c r="C117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>354</v>
-      </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" t="s">
         <v>356</v>
       </c>
-      <c r="C118" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>357</v>
-      </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>358</v>
+      </c>
+      <c r="B120" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" t="s">
         <v>359</v>
       </c>
-      <c r="C119" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>360</v>
-      </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" t="s">
         <v>362</v>
       </c>
-      <c r="C120" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
         <v>363</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>364</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>366</v>
       </c>
-      <c r="B122" t="s">
-        <v>368</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>371</v>
+      </c>
+      <c r="C123" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>369</v>
-      </c>
-      <c r="B123" t="s">
-        <v>370</v>
-      </c>
-      <c r="C123" t="s">
-        <v>371</v>
+      <c r="D123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>384</v>
+      </c>
+      <c r="B128" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>387</v>
+      </c>
+      <c r="B129" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>390</v>
+      </c>
+      <c r="B130" t="s">
+        <v>392</v>
+      </c>
+      <c r="C130" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>396</v>
+      </c>
+      <c r="B132" t="s">
+        <v>398</v>
+      </c>
+      <c r="C132" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>401</v>
+      </c>
+      <c r="C133" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>402</v>
+      </c>
+      <c r="C134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" t="s">
+        <v>406</v>
+      </c>
+      <c r="C135" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>407</v>
+      </c>
+      <c r="B136" t="s">
+        <v>409</v>
+      </c>
+      <c r="C136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" t="s">
+        <v>411</v>
+      </c>
+      <c r="C137" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>412</v>
+      </c>
+      <c r="B138" t="s">
+        <v>414</v>
+      </c>
+      <c r="C138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>415</v>
+      </c>
+      <c r="B139" t="s">
+        <v>416</v>
+      </c>
+      <c r="C139" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" t="s">
+        <v>420</v>
+      </c>
+      <c r="C140" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" t="s">
+        <v>423</v>
+      </c>
+      <c r="C141" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>436</v>
+      </c>
+      <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>443</v>
+      </c>
+      <c r="C151" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>449</v>
+      </c>
+      <c r="B154" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>452</v>
+      </c>
+      <c r="C155" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D0632-4A94-4981-A0A8-9F83AC08C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B7EE6-57EF-4C1F-BE20-ECFCE561DE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="425">
   <si>
     <t>слово</t>
   </si>
@@ -143,15 +143,6 @@
     <t>ретрит</t>
   </si>
   <si>
-    <t>circuit</t>
-  </si>
-  <si>
-    <t>цепь, контур</t>
-  </si>
-  <si>
-    <t>сёркет</t>
-  </si>
-  <si>
     <t>beset</t>
   </si>
   <si>
@@ -164,15 +155,6 @@
     <t>фрэймворк</t>
   </si>
   <si>
-    <t>inn</t>
-  </si>
-  <si>
-    <t>ин</t>
-  </si>
-  <si>
-    <t>небольшая гостиница</t>
-  </si>
-  <si>
     <t>преследовать/oкружать</t>
   </si>
   <si>
@@ -335,21 +317,9 @@
     <t>enchant</t>
   </si>
   <si>
-    <t>инчант</t>
-  </si>
-  <si>
     <t>очаровывать, завораживать</t>
   </si>
   <si>
-    <t>акИн</t>
-  </si>
-  <si>
-    <t>akin</t>
-  </si>
-  <si>
-    <t>родственный, схожий</t>
-  </si>
-  <si>
     <t>райвэл</t>
   </si>
   <si>
@@ -389,9 +359,6 @@
     <t>omit</t>
   </si>
   <si>
-    <t>не включать, пропускать, упускать</t>
-  </si>
-  <si>
     <t>оумит</t>
   </si>
   <si>
@@ -503,21 +470,9 @@
     <t>пул даун</t>
   </si>
   <si>
-    <t>fall over</t>
-  </si>
-  <si>
-    <t>опрокидываться, падать</t>
-  </si>
-  <si>
-    <t>фол овер</t>
-  </si>
-  <si>
     <t>estate</t>
   </si>
   <si>
-    <t>имущество, недвижимость, имение</t>
-  </si>
-  <si>
     <t>эстэйт</t>
   </si>
   <si>
@@ -539,33 +494,6 @@
     <t>баскет</t>
   </si>
   <si>
-    <t>peril</t>
-  </si>
-  <si>
-    <t>опасность, риск</t>
-  </si>
-  <si>
-    <t>перл</t>
-  </si>
-  <si>
-    <t>whenever</t>
-  </si>
-  <si>
-    <t>когда бы ни</t>
-  </si>
-  <si>
-    <t>веневэр</t>
-  </si>
-  <si>
-    <t>steep</t>
-  </si>
-  <si>
-    <t>кртутой (склон), резкий, обрывистый</t>
-  </si>
-  <si>
-    <t>стип</t>
-  </si>
-  <si>
     <t>экзолт</t>
   </si>
   <si>
@@ -593,24 +521,6 @@
     <t>жара, тепло, зной</t>
   </si>
   <si>
-    <t>stem</t>
-  </si>
-  <si>
-    <t>стебель, останавливать</t>
-  </si>
-  <si>
-    <t>стем</t>
-  </si>
-  <si>
-    <t>era</t>
-  </si>
-  <si>
-    <t>эра</t>
-  </si>
-  <si>
-    <t>эра, эпоха</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -746,24 +656,6 @@
     <t>гнездо, гнездиться, вить гнездо</t>
   </si>
   <si>
-    <t>tact</t>
-  </si>
-  <si>
-    <t>такт</t>
-  </si>
-  <si>
-    <t>такт, тактичность</t>
-  </si>
-  <si>
-    <t>kiwi</t>
-  </si>
-  <si>
-    <t>киуи</t>
-  </si>
-  <si>
-    <t>киви</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
@@ -854,15 +746,6 @@
     <t>рассматривать, обдумывать, принимать во внимание, полагать, считать</t>
   </si>
   <si>
-    <t>err</t>
-  </si>
-  <si>
-    <t>эар</t>
-  </si>
-  <si>
-    <t>ошибаться</t>
-  </si>
-  <si>
     <t>aisle</t>
   </si>
   <si>
@@ -1395,6 +1278,36 @@
   </si>
   <si>
     <t>что-то надоело</t>
+  </si>
+  <si>
+    <t>инчАнт</t>
+  </si>
+  <si>
+    <t>redemption</t>
+  </si>
+  <si>
+    <t>спасение</t>
+  </si>
+  <si>
+    <t>редЕмпшен</t>
+  </si>
+  <si>
+    <t>get back</t>
+  </si>
+  <si>
+    <t>вернуться</t>
+  </si>
+  <si>
+    <t>sleep it off</t>
+  </si>
+  <si>
+    <t>отоспаться</t>
+  </si>
+  <si>
+    <t>не включать (исключать), пропускать, пренебрегать</t>
+  </si>
+  <si>
+    <t>имущество, имение, состояние</t>
   </si>
 </sst>
 </file>
@@ -1420,12 +1333,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1440,9 +1359,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1757,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C80" sqref="A80:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1782,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1911,43 +1831,43 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1966,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1974,10 +1894,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -1988,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -1996,10 +1916,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -2010,10 +1930,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2021,10 +1941,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2032,10 +1952,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2054,10 +1974,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2065,10 +1985,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2076,10 +1996,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2098,15 +2018,15 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
@@ -2120,362 +2040,362 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
+      <c r="C37" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
         <v>120</v>
-      </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
-        <v>190</v>
-      </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2483,21 +2403,21 @@
         <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C66" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2518,7 +2438,7 @@
       <c r="B68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2527,10 +2447,10 @@
         <v>204</v>
       </c>
       <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2538,10 +2458,10 @@
         <v>207</v>
       </c>
       <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2549,10 +2469,10 @@
         <v>210</v>
       </c>
       <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2560,464 +2480,464 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
         <v>215</v>
       </c>
-      <c r="C72" t="s">
-        <v>214</v>
+      <c r="D72" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
-      </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D74" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
-      </c>
-      <c r="C75" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
-      </c>
-      <c r="C80" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C102" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" t="s">
         <v>332</v>
       </c>
-      <c r="B111" t="s">
-        <v>334</v>
-      </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" t="s">
         <v>335</v>
-      </c>
-      <c r="B112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
         <v>338</v>
-      </c>
-      <c r="B113" t="s">
-        <v>340</v>
       </c>
       <c r="C113" t="s">
         <v>339</v>
@@ -3025,65 +2945,62 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B114" t="s">
         <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" t="s">
         <v>344</v>
-      </c>
-      <c r="B115" t="s">
-        <v>346</v>
-      </c>
-      <c r="C115" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" t="s">
         <v>350</v>
-      </c>
-      <c r="B117" t="s">
-        <v>368</v>
-      </c>
-      <c r="C117" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" t="s">
         <v>352</v>
-      </c>
-      <c r="B118" t="s">
-        <v>354</v>
-      </c>
-      <c r="C118" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" t="s">
         <v>355</v>
-      </c>
-      <c r="B119" t="s">
-        <v>357</v>
       </c>
       <c r="C119" t="s">
         <v>356</v>
@@ -3091,359 +3008,257 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" t="s">
         <v>358</v>
-      </c>
-      <c r="B120" t="s">
-        <v>360</v>
-      </c>
-      <c r="C120" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B121" t="s">
         <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
         <v>364</v>
       </c>
-      <c r="B122" t="s">
-        <v>369</v>
-      </c>
-      <c r="C122" t="s">
-        <v>365</v>
+      <c r="D122" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" t="s">
         <v>366</v>
-      </c>
-      <c r="B123" t="s">
-        <v>371</v>
-      </c>
-      <c r="C123" t="s">
-        <v>367</v>
-      </c>
-      <c r="D123" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C124" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B129" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>390</v>
-      </c>
-      <c r="B130" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>393</v>
-      </c>
-      <c r="B131" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>396</v>
-      </c>
-      <c r="B132" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>399</v>
-      </c>
-      <c r="B133" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>404</v>
-      </c>
-      <c r="B135" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C135" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>410</v>
-      </c>
-      <c r="B137" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C137" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>412</v>
-      </c>
-      <c r="B138" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C138" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>415</v>
-      </c>
-      <c r="B139" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>418</v>
-      </c>
-      <c r="B140" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>421</v>
-      </c>
-      <c r="B141" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C141" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>410</v>
+      </c>
+      <c r="B142" t="s">
+        <v>412</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C143" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>416</v>
+      </c>
+      <c r="B144" t="s">
+        <v>418</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>434</v>
-      </c>
-      <c r="C147" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>436</v>
-      </c>
-      <c r="B148" t="s">
-        <v>438</v>
-      </c>
-      <c r="C148" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>439</v>
-      </c>
-      <c r="C149" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>441</v>
-      </c>
-      <c r="C150" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>443</v>
-      </c>
-      <c r="C151" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>445</v>
-      </c>
-      <c r="C152" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>447</v>
-      </c>
-      <c r="C153" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>449</v>
-      </c>
-      <c r="B154" t="s">
-        <v>451</v>
-      </c>
-      <c r="C154" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>452</v>
-      </c>
-      <c r="C155" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B7EE6-57EF-4C1F-BE20-ECFCE561DE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE0394-7A51-47C2-8EFE-B55E28486A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2FC56B5D-FC73-432F-9088-ECC9645DB1E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>слово</t>
   </si>
@@ -575,15 +575,6 @@
     <t>батэр</t>
   </si>
   <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t>наказание, штраф</t>
-  </si>
-  <si>
-    <t>пеналти</t>
-  </si>
-  <si>
     <t>baker</t>
   </si>
   <si>
@@ -662,9 +653,6 @@
     <t>релатив</t>
   </si>
   <si>
-    <t>родственник, относительный, сравнительный, относительно</t>
-  </si>
-  <si>
     <t>daytime</t>
   </si>
   <si>
@@ -1308,6 +1296,54 @@
   </si>
   <si>
     <t>имущество, имение, состояние</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>достижения</t>
+  </si>
+  <si>
+    <t>ачИвмент</t>
+  </si>
+  <si>
+    <t>(литературное)</t>
+  </si>
+  <si>
+    <t>forbid</t>
+  </si>
+  <si>
+    <t>запрещать</t>
+  </si>
+  <si>
+    <t>фобИд</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>вести, руководить</t>
+  </si>
+  <si>
+    <t>interfere</t>
+  </si>
+  <si>
+    <t>вмешиваться, мешать</t>
+  </si>
+  <si>
+    <t>лиид</t>
+  </si>
+  <si>
+    <t>интефИа</t>
+  </si>
+  <si>
+    <t>родственник, относительный, сравнительный</t>
+  </si>
+  <si>
+    <t>get across</t>
+  </si>
+  <si>
+    <t>донести, перебраться, переправиться</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,6 +1379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,10 +1401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1677,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2542082-188E-4AD1-AB61-64B719948F9F}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C80" sqref="A80:C80"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2020,7 +2063,7 @@
       <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2040,7 +2083,7 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s">
         <v>94</v>
@@ -2053,7 +2096,7 @@
       <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2097,8 +2140,8 @@
       <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>423</v>
+      <c r="C37" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2222,7 +2265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2233,18 +2276,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
       <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C50" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -2255,7 +2298,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -2266,18 +2309,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -2288,7 +2334,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -2299,7 +2345,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -2310,7 +2356,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -2321,7 +2367,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -2332,7 +2378,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -2343,18 +2389,18 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -2365,34 +2411,34 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>180</v>
       </c>
       <c r="B62" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
         <v>185</v>
       </c>
-      <c r="C63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
         <v>188</v>
@@ -2405,8 +2451,8 @@
       <c r="B65" t="s">
         <v>193</v>
       </c>
-      <c r="C65" t="s">
-        <v>191</v>
+      <c r="C65" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2416,7 +2462,7 @@
       <c r="B66" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2427,7 +2473,7 @@
       <c r="B67" t="s">
         <v>199</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2438,7 +2484,7 @@
       <c r="B68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2449,44 +2495,47 @@
       <c r="B69" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>206</v>
+      <c r="C69" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>212</v>
+      <c r="D71" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
-        <v>215</v>
+      <c r="C72" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2494,32 +2543,29 @@
         <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D73" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" t="s">
         <v>220</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
         <v>222</v>
-      </c>
-      <c r="B75" t="s">
-        <v>224</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>223</v>
@@ -2527,98 +2573,98 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>232</v>
-      </c>
-      <c r="C78" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
         <v>235</v>
       </c>
-      <c r="C79" t="s">
-        <v>236</v>
+      <c r="C79" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="B81" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>244</v>
-      </c>
-      <c r="C82" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
         <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="s">
         <v>249</v>
-      </c>
-      <c r="B84" t="s">
-        <v>251</v>
       </c>
       <c r="C84" t="s">
         <v>250</v>
@@ -2632,15 +2678,15 @@
         <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
         <v>256</v>
-      </c>
-      <c r="B86" t="s">
-        <v>257</v>
       </c>
       <c r="C86" t="s">
         <v>255</v>
@@ -2648,43 +2694,43 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
         <v>258</v>
-      </c>
-      <c r="B87" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
         <v>261</v>
-      </c>
-      <c r="B88" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
         <v>264</v>
-      </c>
-      <c r="B89" t="s">
-        <v>266</v>
-      </c>
-      <c r="C89" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
         <v>267</v>
-      </c>
-      <c r="B90" t="s">
-        <v>269</v>
       </c>
       <c r="C90" t="s">
         <v>268</v>
@@ -2692,43 +2738,43 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>271</v>
-      </c>
-      <c r="C91" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" t="s">
         <v>273</v>
-      </c>
-      <c r="B92" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="B93" t="s">
-        <v>331</v>
-      </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" t="s">
         <v>278</v>
-      </c>
-      <c r="B94" t="s">
-        <v>280</v>
       </c>
       <c r="C94" t="s">
         <v>279</v>
@@ -2736,76 +2782,76 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
         <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
         <v>284</v>
-      </c>
-      <c r="B96" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" t="s">
         <v>287</v>
-      </c>
-      <c r="B97" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" t="s">
         <v>290</v>
-      </c>
-      <c r="B98" t="s">
-        <v>292</v>
-      </c>
-      <c r="C98" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" t="s">
         <v>293</v>
-      </c>
-      <c r="B99" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
         <v>296</v>
-      </c>
-      <c r="B100" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" t="s">
         <v>299</v>
-      </c>
-      <c r="B101" t="s">
-        <v>301</v>
       </c>
       <c r="C101" t="s">
         <v>300</v>
@@ -2813,13 +2859,13 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
         <v>303</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -2827,18 +2873,18 @@
         <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C104" t="s">
         <v>308</v>
@@ -2846,43 +2892,43 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="s">
         <v>311</v>
       </c>
-      <c r="B105" t="s">
-        <v>329</v>
-      </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
         <v>313</v>
-      </c>
-      <c r="B106" t="s">
-        <v>315</v>
-      </c>
-      <c r="C106" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
         <v>316</v>
-      </c>
-      <c r="B107" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" t="s">
         <v>319</v>
-      </c>
-      <c r="B108" t="s">
-        <v>321</v>
       </c>
       <c r="C108" t="s">
         <v>320</v>
@@ -2890,43 +2936,43 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" t="s">
         <v>322</v>
-      </c>
-      <c r="B109" t="s">
-        <v>323</v>
-      </c>
-      <c r="C109" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
         <v>332</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" t="s">
         <v>334</v>
-      </c>
-      <c r="B112" t="s">
-        <v>336</v>
       </c>
       <c r="C112" t="s">
         <v>335</v>
@@ -2934,40 +2980,40 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
         <v>338</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
         <v>340</v>
-      </c>
-      <c r="B114" t="s">
-        <v>342</v>
-      </c>
-      <c r="C114" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
         <v>343</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" t="s">
         <v>345</v>
-      </c>
-      <c r="B116" t="s">
-        <v>347</v>
       </c>
       <c r="C116" t="s">
         <v>346</v>
@@ -2975,21 +3021,21 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
         <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" t="s">
         <v>351</v>
-      </c>
-      <c r="B118" t="s">
-        <v>353</v>
       </c>
       <c r="C118" t="s">
         <v>352</v>
@@ -2997,87 +3043,87 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
         <v>355</v>
       </c>
       <c r="C119" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" t="s">
         <v>357</v>
-      </c>
-      <c r="B120" t="s">
-        <v>359</v>
-      </c>
-      <c r="C120" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" t="s">
         <v>360</v>
       </c>
-      <c r="B121" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" t="s">
-        <v>361</v>
+      <c r="D121" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" t="s">
         <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" t="s">
         <v>365</v>
-      </c>
-      <c r="B123" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" t="s">
         <v>368</v>
       </c>
-      <c r="B124" t="s">
-        <v>370</v>
-      </c>
       <c r="C124" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>369</v>
+      </c>
+      <c r="B125" t="s">
         <v>371</v>
       </c>
-      <c r="B125" t="s">
-        <v>372</v>
-      </c>
       <c r="C125" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>372</v>
+      </c>
+      <c r="B126" t="s">
         <v>373</v>
-      </c>
-      <c r="B126" t="s">
-        <v>375</v>
       </c>
       <c r="C126" t="s">
         <v>374</v>
@@ -3085,180 +3131,221 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B127" t="s">
         <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>378</v>
+      </c>
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
         <v>379</v>
-      </c>
-      <c r="B128" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" t="s">
         <v>382</v>
-      </c>
-      <c r="B129" t="s">
-        <v>384</v>
-      </c>
-      <c r="C129" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" t="s">
         <v>385</v>
-      </c>
-      <c r="C130" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" t="s">
         <v>388</v>
-      </c>
-      <c r="C132" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" t="s">
         <v>395</v>
       </c>
       <c r="C135" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" t="s">
         <v>397</v>
-      </c>
-      <c r="B136" t="s">
-        <v>399</v>
-      </c>
-      <c r="C136" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C139" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" t="s">
         <v>408</v>
       </c>
       <c r="C141" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>409</v>
+      </c>
+      <c r="C142" t="s">
         <v>410</v>
-      </c>
-      <c r="B142" t="s">
-        <v>412</v>
-      </c>
-      <c r="C142" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>412</v>
+      </c>
+      <c r="B143" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" t="s">
         <v>413</v>
-      </c>
-      <c r="C143" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>415</v>
+      </c>
+      <c r="C144" t="s">
         <v>416</v>
-      </c>
-      <c r="B144" t="s">
-        <v>418</v>
-      </c>
-      <c r="C144" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>421</v>
       </c>
+      <c r="B146" t="s">
+        <v>423</v>
+      </c>
       <c r="C146" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>425</v>
+      </c>
+      <c r="B147" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" t="s">
+        <v>433</v>
+      </c>
+      <c r="C149" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>435</v>
+      </c>
+      <c r="C150" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
